--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_36.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3747436.922958294</v>
+        <v>3747436.922958293</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474190.5699002291</v>
+        <v>596801.1389704791</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>282.7721598076875</v>
+        <v>115.7273181429296</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>112.8566199863818</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>89.06613335611783</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>308.1404167520957</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>3.270884136074119</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>206.3773460477727</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.234707488415692</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>367.8328453850362</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>76.27793650827121</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>20.31656064018927</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274094</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>260.2611488062148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.8133129120136</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>23.39375411340972</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>86.11725254893052</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>139.8084418793349</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>108.6200406500438</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.40149736675367</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>183.4653217847137</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>174.4534201155185</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>5.893763769139355</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>40.71096332175367</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>54.24570608526324</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>89.4024810802875</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>270.5856527351861</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>58.42247119226039</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>106.1568787371629</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>16.218500686086</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>75.0442898512223</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>54.97117385624338</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.778685247039</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497228</v>
+        <v>1838.715370239897</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,10 +4416,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>614.1323983616041</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>614.1323983616041</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>614.1323983616041</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>614.1323983616041</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>614.1323983616041</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>614.1323983616041</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>614.1323983616041</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>393.339819218074</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1347.611616930934</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2638.816478178944</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2385.054692817035</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2385.054692817035</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2032.286037546921</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1658.820279285841</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1268.68094731003</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="6">
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>490.2500993552354</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>490.2500993552354</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>490.2500993552354</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>405.2609724030931</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1310.651480925462</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C8" t="n">
-        <v>941.6889639850508</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D8" t="n">
-        <v>941.6889639850508</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="E8" t="n">
-        <v>555.9007113868065</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>548.955210637603</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>130.9914025357899</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.251320989584</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1697.251320989584</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1212846776637</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>120.1212846776637</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>120.1212846776637</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>120.1212846776637</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1212846776637</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>120.1212846776637</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>120.1212846776637</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>120.1212846776637</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5045,7 +5045,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>779.5615433385053</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.889396603097</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W13" t="n">
-        <v>468.4276790558727</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X13" t="n">
-        <v>468.4276790558727</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123426</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,28 +5267,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>178.2926370722065</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>589.1829059167192</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1829059167192</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M15" t="n">
-        <v>1357.551052309181</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.071707946799</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.0663679705859</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.993732262939</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.993732262939</v>
       </c>
       <c r="T16" t="n">
-        <v>1475.286215897893</v>
+        <v>1164.208317052445</v>
       </c>
       <c r="U16" t="n">
-        <v>1186.157577111451</v>
+        <v>1164.208317052445</v>
       </c>
       <c r="V16" t="n">
-        <v>931.4730889055638</v>
+        <v>909.523828846558</v>
       </c>
       <c r="W16" t="n">
-        <v>642.0559188686032</v>
+        <v>909.523828846558</v>
       </c>
       <c r="X16" t="n">
-        <v>414.0663679705859</v>
+        <v>909.523828846558</v>
       </c>
       <c r="Y16" t="n">
-        <v>414.0663679705859</v>
+        <v>688.7312497030279</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5504,61 +5504,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2603.680811309015</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>3217.577881065903</v>
+        <v>479.098332261396</v>
       </c>
       <c r="M18" t="n">
-        <v>3537.913200595605</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>4342.324778859755</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>4591.078192943718</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>678.2225136306378</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1411.929146771104</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1411.929146771104</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1188.14373156061</v>
       </c>
       <c r="U19" t="n">
-        <v>1046.700508672316</v>
+        <v>899.0150927741679</v>
       </c>
       <c r="V19" t="n">
-        <v>1046.700508672316</v>
+        <v>899.0150927741679</v>
       </c>
       <c r="W19" t="n">
-        <v>1046.700508672316</v>
+        <v>899.0150927741679</v>
       </c>
       <c r="X19" t="n">
-        <v>818.7109577742983</v>
+        <v>899.0150927741679</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.9183786307682</v>
+        <v>678.2225136306378</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,28 +5771,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>447.6783406966023</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>754.998473976564</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>861.4909633328887</v>
+        <v>206.9343042381079</v>
       </c>
       <c r="C22" t="n">
-        <v>692.5547804049818</v>
+        <v>206.9343042381079</v>
       </c>
       <c r="D22" t="n">
-        <v>542.438140992646</v>
+        <v>206.9343042381079</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>206.9343042381079</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>206.9343042381079</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>206.9343042381079</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>909.3712637033469</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W22" t="n">
-        <v>909.3712637033469</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X22" t="n">
-        <v>909.3712637033469</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="Y22" t="n">
-        <v>861.4909633328887</v>
+        <v>388.5827690683476</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5987,7 +5987,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6002,7 +6002,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>779.5615433385053</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M24" t="n">
-        <v>1547.929689730967</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N24" t="n">
-        <v>2352.341267995118</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.341267995118</v>
+        <v>1818.001057576792</v>
       </c>
       <c r="P24" t="n">
-        <v>2534.984745608469</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>244.1070389581962</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581962</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>442.2730031446709</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>672.23610901302</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1440.604255405482</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N27" t="n">
-        <v>1785.124911043099</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O27" t="n">
-        <v>2033.878325127062</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3745.579464959138</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>3576.643282031232</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>3576.643282031232</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294727</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294727</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4148.020508932908</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>4148.020508932908</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>4148.020508932908</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>4148.020508932908</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y28" t="n">
-        <v>3927.227929789378</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,10 +6479,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6549,19 +6549,19 @@
         <v>618.8589595388348</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1942790685366</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="N30" t="n">
-        <v>1465.726837047114</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>2135.190598349773</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1333.047524609361</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1078.363036403474</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>788.9458663665135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>264.0657286834809</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L33" t="n">
-        <v>877.9627984403695</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.298117970071</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N33" t="n">
-        <v>1542.818773607689</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O33" t="n">
-        <v>2033.878325127062</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>467.9934022109801</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C34" t="n">
-        <v>299.0572192830732</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6862,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W34" t="n">
-        <v>1098.423997082767</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="X34" t="n">
-        <v>870.43444618475</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y34" t="n">
-        <v>649.6418670412198</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6962,10 +6962,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7017,22 +7017,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>521.0298940924763</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1134.926963849365</v>
+        <v>1185.741597681017</v>
       </c>
       <c r="M36" t="n">
-        <v>1455.262283379067</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="N36" t="n">
-        <v>1785.124911043099</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O36" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7120,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1016.198248099061</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>761.5137598931742</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>472.0965898562135</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>244.1070389581962</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7151,10 +7151,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7169,52 +7169,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L39" t="n">
-        <v>618.8589595388348</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1942790685366</v>
+        <v>897.6601296826478</v>
       </c>
       <c r="N39" t="n">
-        <v>1465.726837047114</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O39" t="n">
-        <v>2135.190598349773</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.4872769945463</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>782.4872769945463</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>782.4872769945463</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>634.5741834121532</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>964.135741824786</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>964.135741824786</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>964.135741824786</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>618.3141514389024</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>1232.211221195791</v>
       </c>
       <c r="M42" t="n">
-        <v>1778.261399527878</v>
+        <v>1552.546540725493</v>
       </c>
       <c r="N42" t="n">
-        <v>2122.782055165496</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4744.160657054477</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>4520.375241843984</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>4231.246603057542</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>3976.562114851655</v>
       </c>
       <c r="W43" t="n">
-        <v>714.9354044297402</v>
+        <v>3687.144944814694</v>
       </c>
       <c r="X43" t="n">
-        <v>486.9458535317228</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="Y43" t="n">
-        <v>266.1532743881928</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7637,46 +7637,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L45" t="n">
-        <v>510.3034215191122</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>1070.276614930101</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N45" t="n">
-        <v>1874.688193194252</v>
+        <v>1565.426559416552</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1814.179973500514</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2334.480595236261</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3941.295339356063</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>3941.295339356063</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>3941.295339356063</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>3793.38224577367</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>3646.49229827576</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3646.49229827576</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4571.72593422785</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>4571.72593422785</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>4571.72593422785</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X46" t="n">
-        <v>4343.736383329833</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y46" t="n">
-        <v>4122.943804186303</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
   </sheetData>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>129.3007272572019</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>121.3262303116304</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9483,10 +9483,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>365.9318435965197</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,7 +9729,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>156.0557073908764</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>62.79465928983132</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>213.656046768359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>207.7840137618125</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>310.5512717382542</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,13 +11391,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>51.56266414401837</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>26.2618495303762</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0.1510394917791871</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>198.1538069449795</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>23.84709985486228</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>146.4289105192425</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>40.29378771749232</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.1831559853411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>14.45548819888955</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>112.0695782210725</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>140.5401988774298</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>184.9986920672835</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.9916463133141</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>59.21299193792485</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>15.9373456014049</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25360,13 +25360,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>227.814881206317</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>39.2641692857683</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25606,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>270.304497650505</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>73.86953851631382</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>163.6134794958514</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="9">
@@ -26314,46 +26314,46 @@
         <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278754</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278753</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="G2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="I2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="K2" t="n">
         <v>703852.3075278758</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="N2" t="n">
         <v>703852.3075278756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.307527876</v>
       </c>
       <c r="O2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278756</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759137</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758843</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758901</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
@@ -26479,7 +26479,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071833</v>
+        <v>-72948.50358071827</v>
       </c>
       <c r="C6" t="n">
-        <v>517019.3756338264</v>
+        <v>517019.3756338262</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.3756338262</v>
+        <v>517019.375633826</v>
       </c>
       <c r="E6" t="n">
-        <v>85917.1514116867</v>
+        <v>85917.15141168726</v>
       </c>
       <c r="F6" t="n">
-        <v>611077.1878885828</v>
+        <v>611077.1878885833</v>
       </c>
       <c r="G6" t="n">
         <v>611077.1878885833</v>
       </c>
       <c r="H6" t="n">
-        <v>611077.1878885836</v>
+        <v>611077.1878885833</v>
       </c>
       <c r="I6" t="n">
+        <v>611077.1878885835</v>
+      </c>
+      <c r="J6" t="n">
+        <v>434653.9686959902</v>
+      </c>
+      <c r="K6" t="n">
         <v>611077.1878885833</v>
       </c>
-      <c r="J6" t="n">
-        <v>434653.9686959904</v>
-      </c>
-      <c r="K6" t="n">
-        <v>611077.1878885832</v>
-      </c>
       <c r="L6" t="n">
-        <v>611077.1878885833</v>
+        <v>611077.1878885834</v>
       </c>
       <c r="M6" t="n">
         <v>476276.1726547462</v>
       </c>
       <c r="N6" t="n">
-        <v>611077.1878885835</v>
+        <v>611077.1878885832</v>
       </c>
       <c r="O6" t="n">
         <v>611077.1878885833</v>
       </c>
       <c r="P6" t="n">
-        <v>611077.1878885834</v>
+        <v>611077.1878885832</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.96168185579307</v>
+        <v>267.006523520551</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>33.8085719937761</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>136.6435220329193</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>73.78995332016603</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.1774362215837</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>18.65775941031154</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>247.9029358354123</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>14.09752468722559</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>247.6448362560859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>146.9932416188616</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>75.30176537689297</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28330,10 +28330,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28384,10 +28384,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28567,13 +28567,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,13 +28612,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,31 +31136,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,25 +31592,25 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,16 +31838,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,7 +31856,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>111.3199910445496</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>82.64108184334944</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>155.0114535660846</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,16 +32251,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,25 +32312,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>205.7163539684478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>171.3135836203299</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32795,22 +32795,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>331.1308614851326</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.38808207509128</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33029,22 +33029,22 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33269,16 +33269,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>183.8504064050093</v>
+        <v>177.090999844005</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33500,28 +33500,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>191.9134873893292</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33737,25 +33737,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>133.4687276989805</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>284.1918478338457</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33895,7 +33895,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041496</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -33980,10 +33980,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>252.6713260851627</v>
       </c>
       <c r="N39" t="n">
-        <v>183.8504064050093</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33992,7 +33992,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34217,7 +34217,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -34229,7 +34229,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34366,7 +34366,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961211</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34445,19 +34445,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>242.0584584659469</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34466,7 +34466,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>211.1801409386339</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>439.7251043076682</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35504,7 +35504,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>295.8083522701565</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.89449051709158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>406.2775283983697</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>271.9016688995696</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>67.16197418857362</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>227.3774638166456</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>515.6192227107396</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.48359572491886</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>306.6311459788156</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>269.888074221356</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>531.8510686652295</v>
+        <v>525.0916621042252</v>
       </c>
       <c r="O30" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>515.4845172173108</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>496.0197490094671</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>260.0925257372001</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>516.4778133574307</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>576.2423559131443</v>
       </c>
       <c r="N39" t="n">
-        <v>531.8510686652295</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178377</v>
@@ -37640,10 +37640,10 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>358.3594523497517</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>620.9756487887205</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
         <v>348.0006622602202</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>565.6294882939285</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>281.2756545884615</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3747436.922958293</v>
+        <v>3822966.592623098</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>596801.1389704791</v>
+        <v>737076.8238554375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115.7273181429296</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>233.2699379634748</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>43.8661741675806</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>112.8566199863818</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>308.1404167520957</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>83.05158760959884</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>4.553842565068913</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>4.234707488415692</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>367.8328453850362</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>367.8427665263986</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.46079155833878</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274078</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>58.40168825977442</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>192.06061304514</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1658,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.8133129120136</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>86.11725254893052</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>108.6200406500438</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>174.7430637258772</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.4653217847137</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>247.1379561257959</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>76.34002873555087</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>40.71096332175367</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>27.71302859845004</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896907</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>73.31687599864533</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>270.5856527351861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>281.2233475240301</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3901,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.562624396424889</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>83.44902383580448</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>16.03520384522233</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.97117385624338</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>860.9989658901939</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>443.0351577883807</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.715370239897</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,13 +4415,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4443,13 +4445,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>143.9087730891701</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>143.9087730891701</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>614.1323983616041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>614.1323983616041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>614.1323983616041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>614.1323983616041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>614.1323983616041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>614.1323983616041</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>614.1323983616041</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.339819218074</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1705.877315537684</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="C5" t="n">
-        <v>1705.877315537684</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="D5" t="n">
-        <v>1347.611616930934</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>882.9920024211231</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>465.0281943193099</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>137.8334743553128</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>1680.577747274852</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4659,28 +4661,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>723.5291432316174</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>723.5291432316174</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>509.2407200497801</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>405.2609724030931</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>405.2609724030931</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1331.061315312042</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1331.061315312042</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>1331.061315312042</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>439.4247359084389</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1331.061315312042</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4892,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521274</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521274</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5027,25 +5029,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1442.339749591389</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1786.860405229007</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2035.613819312969</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1439.9246662551</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1439.9246662551</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1439.9246662551</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.9246662551</v>
+        <v>1081.130236109893</v>
       </c>
       <c r="V13" t="n">
-        <v>1185.240178049213</v>
+        <v>1081.130236109893</v>
       </c>
       <c r="W13" t="n">
-        <v>895.8230080122524</v>
+        <v>791.7130660729324</v>
       </c>
       <c r="X13" t="n">
-        <v>667.8334571142351</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.040877970705</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5360,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>618.8589595388348</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1942790685366</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N15" t="n">
-        <v>1743.605857332687</v>
+        <v>2029.138566119362</v>
       </c>
       <c r="O15" t="n">
-        <v>2145.820610447073</v>
+        <v>2277.891980203325</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.993732262939</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.993732262939</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.208317052445</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.208317052445</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>909.523828846558</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>909.523828846558</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>909.523828846558</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y16" t="n">
-        <v>688.7312497030279</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>479.098332261396</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.946494673699</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.2225136306378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>509.2863307027309</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1411.929146771104</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1411.929146771104</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1188.14373156061</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>899.0150927741679</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>899.0150927741679</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>899.0150927741679</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>899.0150927741679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>678.2225136306378</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>264.0657286834808</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>435.8912381133354</v>
       </c>
       <c r="M21" t="n">
-        <v>1778.261399527878</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N21" t="n">
-        <v>2122.782055165496</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>206.9343042381079</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>206.9343042381079</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>206.9343042381079</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>206.9343042381079</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>206.9343042381079</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>206.9343042381079</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488384</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>898.7925182488384</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>609.3753482118777</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>609.3753482118777</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y22" t="n">
-        <v>388.5827690683476</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6005,34 +6007,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,22 +6071,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>904.39166832551</v>
+        <v>674.428562457161</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.726987855212</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="N24" t="n">
-        <v>1569.24764349283</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O24" t="n">
-        <v>1818.001057576792</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1313.597763704656</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1089.812348494162</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>800.6837097077201</v>
+        <v>1049.361961356489</v>
       </c>
       <c r="V25" t="n">
-        <v>545.9992215018333</v>
+        <v>794.6774731506025</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>794.6774731506025</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>566.6879222525852</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265285</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483982</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1421.805130420983</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1421.805130420983</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1132.676491634541</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>877.992003428654</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>877.992003428654</v>
       </c>
       <c r="X28" t="n">
-        <v>879.2482765610114</v>
+        <v>877.992003428654</v>
       </c>
       <c r="Y28" t="n">
-        <v>879.2482765610114</v>
+        <v>657.1994242851239</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6528,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6546,16 +6548,16 @@
         <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>618.8589595388348</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M30" t="n">
-        <v>618.8589595388348</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1347.313579064992</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.777340367652</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1359.848208939476</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1359.848208939476</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1359.848208939476</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1105.163720733589</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,40 +6712,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,16 +6788,16 @@
         <v>877.4353633695368</v>
       </c>
       <c r="M33" t="n">
-        <v>1387.765035414674</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N33" t="n">
-        <v>2192.176613678825</v>
+        <v>2002.182261163389</v>
       </c>
       <c r="O33" t="n">
-        <v>2440.930027762787</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>395.2468244550147</v>
+        <v>321.3911813763037</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>321.3911813763037</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>171.274541963968</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>171.274541963968</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>171.274541963968</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>171.274541963968</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>1298.996260473455</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>1025.677419326802</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X34" t="n">
-        <v>797.6878684287846</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y34" t="n">
-        <v>576.8952892852544</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
     <row r="35">
@@ -6923,43 +6925,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>1185.741597681017</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M36" t="n">
-        <v>1954.109744073479</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="N36" t="n">
-        <v>1954.109744073479</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7169,31 +7171,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>327.180197328635</v>
+        <v>1067.429715884973</v>
       </c>
       <c r="M39" t="n">
-        <v>897.6601296826478</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.071707946799</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O39" t="n">
-        <v>2371.535469249458</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1313.886294955175</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1090.100879744681</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>618.3141514389024</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L42" t="n">
-        <v>1232.211221195791</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M42" t="n">
-        <v>1552.546540725493</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N42" t="n">
-        <v>1897.067196363111</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O42" t="n">
-        <v>2145.820610447073</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916677</v>
+        <v>3904.075074409314</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916677</v>
+        <v>3904.075074409314</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>3753.958434996978</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>4744.160657054477</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T43" t="n">
-        <v>4520.375241843984</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U43" t="n">
-        <v>4231.246603057542</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="V43" t="n">
-        <v>3976.562114851655</v>
+        <v>4352.857204450861</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814694</v>
+        <v>4352.857204450861</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916677</v>
+        <v>4124.867653552844</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916677</v>
+        <v>3904.075074409314</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7636,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231263</v>
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181233</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>452.5377573864724</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1220.905903778934</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1565.426559416552</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O45" t="n">
-        <v>1814.179973500514</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2334.480595236261</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7834,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1482.719094956668</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="W46" t="n">
-        <v>731.3177283550796</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="X46" t="n">
-        <v>503.3281774570622</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184325</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
   </sheetData>
@@ -8769,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9024,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,25 +9242,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,10 +9737,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>62.79465928983132</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10212,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10671,22 +10673,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,10 +10922,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>207.7840137618125</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11160,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.56266414401837</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>94.17673935343737</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1510394917791871</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>23.84709985486228</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.29378771749232</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>14.45548819888955</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>39.09939627278141</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>121.5807812480524</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>184.9986920672835</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>170.2077813851532</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>75.5969523688908</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>15.9373456014049</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25360,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>5.299650812560913</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25597,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>14.74113413690324</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>30.75201340998649</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>168.6886194880235</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26074,13 +26076,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>205.5123572131669</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.6134794958514</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="F2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="G2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703852.3075278753</v>
+      </c>
+      <c r="I2" t="n">
         <v>703852.3075278758</v>
       </c>
-      <c r="H2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703852.307527876</v>
-      </c>
       <c r="J2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278755</v>
       </c>
       <c r="K2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="L2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278753</v>
       </c>
       <c r="M2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="N2" t="n">
         <v>703852.3075278756</v>
       </c>
       <c r="O2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="P2" t="n">
         <v>703852.3075278758</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.3075278756</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.596890472448789e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26427,25 +26429,25 @@
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>787.7936905759171</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>787.793690575917</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.793690575917</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758693</v>
@@ -26454,7 +26456,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26476,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26500,7 +26502,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071827</v>
+        <v>-72948.50358071836</v>
       </c>
       <c r="C6" t="n">
         <v>517019.3756338262</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.375633826</v>
+        <v>517019.3756338261</v>
       </c>
       <c r="E6" t="n">
-        <v>85917.15141168726</v>
+        <v>85917.15141168701</v>
       </c>
       <c r="F6" t="n">
         <v>611077.1878885833</v>
       </c>
       <c r="G6" t="n">
-        <v>611077.1878885833</v>
+        <v>611077.1878885832</v>
       </c>
       <c r="H6" t="n">
-        <v>611077.1878885833</v>
+        <v>611077.1878885828</v>
       </c>
       <c r="I6" t="n">
-        <v>611077.1878885835</v>
+        <v>611077.1878885832</v>
       </c>
       <c r="J6" t="n">
         <v>434653.9686959902</v>
@@ -26549,19 +26551,19 @@
         <v>611077.1878885833</v>
       </c>
       <c r="L6" t="n">
-        <v>611077.1878885834</v>
+        <v>611077.1878885828</v>
       </c>
       <c r="M6" t="n">
-        <v>476276.1726547462</v>
+        <v>476276.1726547461</v>
       </c>
       <c r="N6" t="n">
         <v>611077.1878885832</v>
       </c>
       <c r="O6" t="n">
+        <v>611077.1878885835</v>
+      </c>
+      <c r="P6" t="n">
         <v>611077.1878885833</v>
-      </c>
-      <c r="P6" t="n">
-        <v>611077.1878885832</v>
       </c>
     </row>
   </sheetData>
@@ -26701,19 +26703,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,16 +26755,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>267.006523520551</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90.65283480088232</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>112.3047146742146</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>33.8085719937761</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>73.78995332016603</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>68.87972863526241</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>24.56890738984539</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>247.9029358354123</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>14.09752468722559</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>39.0332792153128</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>75.30176537689297</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.821082683639</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
     </row>
     <row r="33">
@@ -31133,7 +31135,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31142,7 +31144,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,16 +31849,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>396.5537155454428</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>111.3199910445496</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,7 +31998,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32078,7 +32080,7 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -32090,16 +32092,16 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>155.0114535660846</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>164.6848965247098</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32312,16 +32314,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>205.7163539684478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>46.00071613217142</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
@@ -32333,7 +32335,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32461,25 +32463,25 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,16 +32551,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>312.1155004160909</v>
       </c>
       <c r="M21" t="n">
-        <v>171.3135836203299</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -32567,19 +32569,19 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,34 +32785,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>443.4800407584532</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>331.1308614851326</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>278.4799167015759</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33266,25 +33268,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>177.090999844005</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>130.3467374539611</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,22 +33508,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>191.9134873893292</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>121.8179737395014</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33655,7 +33657,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961194</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33679,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.0697047810465</v>
@@ -33737,28 +33739,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>284.1918478338457</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>17.27372197920215</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33895,7 +33897,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041496</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
@@ -33974,19 +33976,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>332.6861108200253</v>
       </c>
       <c r="M39" t="n">
-        <v>252.6713260851627</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -33995,7 +33997,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34211,28 +34213,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>422.5825992329737</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34366,7 +34368,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961211</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34390,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
         <v>76.0697047810465</v>
@@ -34445,31 +34447,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>368.9552512585109</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.1801409386339</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34781,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>295.8083522701565</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35726,7 +35728,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35738,13 +35740,13 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>406.2775283983697</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>349.1732577503167</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>67.16197418857362</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>369.571745960153</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>173.5611206362167</v>
       </c>
       <c r="M21" t="n">
-        <v>494.8846134483115</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
@@ -36215,13 +36217,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>767.0510705864348</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>515.6192227107396</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>529.745991533861</v>
       </c>
       <c r="P27" t="n">
-        <v>269.888074221356</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>525.0916621042252</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>314.835098679568</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>515.4845172173108</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>373.0840485717865</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415069</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>516.4778133574307</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>365.2743842394224</v>
       </c>
       <c r="O36" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>564.9720763436103</v>
       </c>
       <c r="M39" t="n">
-        <v>576.2423559131443</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37859,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>358.3594523497517</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>770.583261493194</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>226.3590068140665</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>281.2756545884615</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3822966.592623098</v>
+        <v>3815949.577731388</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>737076.8238554375</v>
+        <v>623560.9149254648</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>233.2699379634748</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>109.4422623037131</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -791,10 +791,10 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>43.8661741675806</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.85034555736551</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>83.05158760959884</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>65.58605002777054</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.553842565068913</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1829210524916</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319829</v>
       </c>
       <c r="F8" t="n">
-        <v>367.8427665263986</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.46079155833878</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274078</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>118.4898845065117</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>192.06061304514</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>174.7430637258772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>247.1379561257959</v>
+        <v>31.13654107019667</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>76.34002873555087</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>27.71302859845004</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896907</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>73.31687599864533</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>281.2233475240301</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>190.7955476484028</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>83.44902383580448</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>16.03520384522233</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1271.984870679801</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C2" t="n">
-        <v>1271.984870679801</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D2" t="n">
-        <v>1271.984870679801</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>1271.984870679801</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>860.9989658901939</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>443.0351577883807</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y2" t="n">
-        <v>1271.984870679801</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4439,7 +4439,7 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694736</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>438.7118141694736</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>290.7987205870805</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>143.9087730891701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>143.9087730891701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>682.82560485556</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1293.977907210731</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.977907210731</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>1293.977907210731</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>1293.977907210731</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>882.9920024211231</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>465.0281943193099</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>137.8334743553128</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2575.871866167129</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2575.871866167129</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2322.110080805221</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2322.110080805221</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1969.341425535107</v>
       </c>
       <c r="X5" t="n">
-        <v>2070.717079250664</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.577747274852</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>723.5291432316174</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>723.5291432316174</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>509.2407200497801</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>439.1214116936061</v>
       </c>
       <c r="D8" t="n">
-        <v>825.2129885066831</v>
+        <v>80.85571308685564</v>
       </c>
       <c r="E8" t="n">
-        <v>439.4247359084389</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,25 +5020,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080546</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5050,40 +5050,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>897.6601296826479</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U13" t="n">
-        <v>1081.130236109893</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>1081.130236109893</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>791.7130660729324</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>563.7235151749151</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1224.726987855212</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N15" t="n">
-        <v>2029.138566119362</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2277.891980203325</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5469,16 +5469,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,19 +5500,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5524,7 +5524,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5600,22 +5600,22 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>738.0704661731477</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.946494673699</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>1312.518938568949</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>1981.982699871608</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5731,19 +5731,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>264.0657286834808</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>435.8912381133354</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1204.259384505797</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1548.780040143415</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>674.428562457161</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1433.809122337731</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.809122337731</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1049.361961356489</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V25" t="n">
-        <v>794.6774731506025</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W25" t="n">
-        <v>794.6774731506025</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>566.6879222525852</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>566.6879222525852</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207829</v>
@@ -6253,25 +6253,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,22 +6308,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>618.8589595388348</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1942790685366</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1283.714934706155</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>657.1994242851239</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C28" t="n">
-        <v>657.1994242851239</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D28" t="n">
-        <v>507.0827848727882</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G28" t="n">
         <v>359.1696912903951</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1421.805130420983</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1421.805130420983</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1132.676491634541</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>877.992003428654</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>877.992003428654</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>877.992003428654</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>657.1994242851239</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805473</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515098</v>
@@ -6484,31 +6484,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,22 +6545,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1002.792923427374</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1002.792923427374</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1347.313579064992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.777340367652</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1359.848208939476</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1359.848208939476</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1359.848208939476</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1105.163720733589</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>815.7465506966282</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>815.7465506966282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.9539715530981</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.770682899239</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>2002.182261163389</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>321.3911813763037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>321.3911813763037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>171.274541963968</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>171.274541963968</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>171.274541963968</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>171.274541963968</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>731.0291971045608</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6931,43 +6931,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1002.792923427374</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1364.414563824402</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W37" t="n">
-        <v>247.3337308726216</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X37" t="n">
-        <v>247.3337308726216</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7168,19 +7168,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,16 +7192,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,13 +7210,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1067.429715884973</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1387.765035414674</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2192.176613678825</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1306.193495155475</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>939.1942790685366</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.071707946799</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3904.075074409314</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3904.075074409314</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3753.958434996978</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4437.14914771935</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>4352.857204450861</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>4352.857204450861</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4124.867653552844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>3904.075074409314</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>2107.322705390779</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1482.719094956668</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1193.590456170226</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1193.590456170226</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>1193.590456170226</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>965.6009052722087</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>744.8083261286786</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>148.2056261846776</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9968,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10916,10 +10916,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709159</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>94.17673935343737</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.74113413690304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>50.96659166315999</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>39.09939627278141</v>
+        <v>255.1008113283807</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>84.59001010593094</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>121.5807812480524</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>170.2077813851532</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>75.5969523688908</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>5.299650812560913</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>30.75201340998649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>168.6886194880235</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>205.5123572131669</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778547</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778546</v>
-      </c>
       <c r="E2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.307527876</v>
       </c>
       <c r="F2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="G2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="I2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="J2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="H2" t="n">
-        <v>703852.3075278753</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="L2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="M2" t="n">
         <v>703852.3075278758</v>
       </c>
-      <c r="J2" t="n">
-        <v>703852.3075278755</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>703852.3075278758</v>
       </c>
-      <c r="L2" t="n">
-        <v>703852.3075278753</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>703852.3075278756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.3075278758</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.596890472448789e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759123</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759171</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.793690575917</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.793690575917</v>
-      </c>
       <c r="M4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26490,19 +26490,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071836</v>
+        <v>-72948.50358071824</v>
       </c>
       <c r="C6" t="n">
+        <v>517019.3756338264</v>
+      </c>
+      <c r="D6" t="n">
         <v>517019.3756338262</v>
       </c>
-      <c r="D6" t="n">
-        <v>517019.3756338261</v>
-      </c>
       <c r="E6" t="n">
-        <v>85917.15141168701</v>
+        <v>84942.56015196606</v>
       </c>
       <c r="F6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="G6" t="n">
-        <v>611077.1878885832</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="H6" t="n">
-        <v>611077.1878885828</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="I6" t="n">
-        <v>611077.1878885832</v>
+        <v>610102.5966288617</v>
       </c>
       <c r="J6" t="n">
-        <v>434653.9686959902</v>
+        <v>433679.3774362685</v>
       </c>
       <c r="K6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288615</v>
       </c>
       <c r="L6" t="n">
-        <v>611077.1878885828</v>
+        <v>610102.5966288615</v>
       </c>
       <c r="M6" t="n">
-        <v>476276.1726547461</v>
+        <v>475301.5813950246</v>
       </c>
       <c r="N6" t="n">
-        <v>611077.1878885832</v>
+        <v>610102.5966288616</v>
       </c>
       <c r="O6" t="n">
-        <v>611077.1878885835</v>
+        <v>610102.5966288615</v>
       </c>
       <c r="P6" t="n">
-        <v>611077.1878885833</v>
+        <v>610102.5966288615</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.500762972007983e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26703,19 +26703,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26743,10 +26743,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.500762972007983e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.500762972007983e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.500762972007983e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,13 +27162,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.500762972007983e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>90.65283480088232</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>107.0060580539447</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>112.3047146742146</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>167.2951933926534</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>68.87972863526241</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>108.829662781201</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.56890738984539</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.09895318948611</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.946981880942</v>
       </c>
       <c r="F8" t="n">
-        <v>39.0332792153128</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.821082683639</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.445023314930081e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -31135,7 +31135,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,34 +31834,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>396.5537155454428</v>
+        <v>126.0475280469432</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,7 +31998,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32077,31 +32077,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>164.6848965247098</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,7 +32323,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>46.00071613217142</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
@@ -32332,13 +32332,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>154.7554530082473</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32463,25 +32463,25 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,37 +32551,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>312.1155004160909</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>443.4800407584532</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>278.4799167015759</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>130.3467374539611</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,25 +33411,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,22 +33499,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>121.8179737395014</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961194</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,25 +33736,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>17.27372197920215</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33979,13 +33979,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>332.6861108200253</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,22 +34210,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>422.5825992329737</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,28 +34456,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>368.9552512585109</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>449.6185578749248</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>16.86391410134428</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>349.1732577503167</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>369.571745960153</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>339.2438142338543</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>173.5611206362167</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>767.0510705864348</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>529.745991533861</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>314.835098679568</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>373.0840485717865</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415069</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>365.2743842394224</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>564.9720763436103</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>770.583261493194</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>226.3590068140665</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3815949.577731388</v>
+        <v>3820888.840580421</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623560.9149254648</v>
+        <v>623560.9149254647</v>
       </c>
     </row>
     <row r="8">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>65.58605002777054</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>203.1829210524916</v>
+        <v>203.1829210524914</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319829</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113168</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.7791350527408</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.4898845065117</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113169</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.69520250663606</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2374,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498018</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>31.13654107019667</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>19.44625325864656</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>81.90355835744664</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>122.65197883716</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3951,10 +3951,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,31 +4731,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
         <v>493.4767912696608</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340179</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936061</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685564</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4795,22 +4795,22 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4849,7 +4849,7 @@
         <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.68376869814</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080546</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5226,22 +5226,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028583</v>
@@ -5257,22 +5257,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,7 +5281,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.638288227967</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1240.718278143519</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1016.932862933025</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>727.8042241465831</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="17">
@@ -5606,10 +5606,10 @@
         <v>508.1073603047985</v>
       </c>
       <c r="N18" t="n">
-        <v>1312.518938568949</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O18" t="n">
-        <v>1981.982699871608</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5977,31 +5977,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,13 +6010,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6065,10 +6065,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
         <v>508.1073603047985</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1043.759793676903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>789.0753054710162</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W25" t="n">
-        <v>499.6581354340557</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6253,25 +6253,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>441.900558318119</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>441.900558318119</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D28" t="n">
-        <v>441.900558318119</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E28" t="n">
-        <v>441.900558318119</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F28" t="n">
-        <v>441.900558318119</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>441.900558318119</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>441.900558318119</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6451,37 +6451,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,10 +7013,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1375.025382843599</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1151.239967633105</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>862.1113288466635</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7359,16 +7359,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
@@ -7599,7 +7599,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011507</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43092547709159</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>52.26914989715674</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>255.1008113283807</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>267.0767450779445</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>84.59001010593094</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>75.26883114644322</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541053</v>
       </c>
     </row>
     <row r="10">
@@ -26316,40 +26316,40 @@
         <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="H2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="I2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.3075278754</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.3075278755</v>
+      </c>
+      <c r="L2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="M2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="N2" t="n">
         <v>703852.3075278759</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.3075278758</v>
       </c>
       <c r="O2" t="n">
         <v>703852.3075278756</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759123</v>
+        <v>787.7936905759087</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758694</v>
@@ -26438,10 +26438,10 @@
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.793690575832</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759101</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
@@ -26450,7 +26450,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758697</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
@@ -26490,7 +26490,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-72948.50358071824</v>
       </c>
       <c r="C6" t="n">
-        <v>517019.3756338264</v>
+        <v>517019.3756338262</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.3756338262</v>
+        <v>517019.3756338261</v>
       </c>
       <c r="E6" t="n">
-        <v>84942.56015196606</v>
+        <v>85819.69228571518</v>
       </c>
       <c r="F6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626113</v>
       </c>
       <c r="G6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.728762611</v>
       </c>
       <c r="H6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="I6" t="n">
-        <v>610102.5966288617</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="J6" t="n">
-        <v>433679.3774362685</v>
+        <v>434556.5095700179</v>
       </c>
       <c r="K6" t="n">
-        <v>610102.5966288615</v>
+        <v>610979.7287626109</v>
       </c>
       <c r="L6" t="n">
-        <v>610102.5966288615</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="M6" t="n">
-        <v>475301.5813950246</v>
+        <v>476178.7135287738</v>
       </c>
       <c r="N6" t="n">
-        <v>610102.5966288616</v>
+        <v>610979.7287626113</v>
       </c>
       <c r="O6" t="n">
-        <v>610102.5966288615</v>
+        <v>610979.728762611</v>
       </c>
       <c r="P6" t="n">
-        <v>610102.5966288615</v>
+        <v>610979.728762611</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.500762972007983e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.500762972007983e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.500762972007983e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.500762972007983e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.500762972007983e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>83.09895318948611</v>
+        <v>83.09895318948634</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.946981880942</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.445023314930081e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957967</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653279</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32092,10 +32092,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32326,13 +32326,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>278.2239161437387</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>154.7554530082473</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33657,7 +33657,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>220.205405775187</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>626.224578403959</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>339.2438142338543</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
